--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Psen1-Ncstn.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Psen1-Ncstn.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>22.7945119512476</v>
+        <v>27.58598166666667</v>
       </c>
       <c r="H2">
-        <v>22.7945119512476</v>
+        <v>82.75794500000001</v>
       </c>
       <c r="I2">
-        <v>0.2406362868021984</v>
+        <v>0.2704460545904799</v>
       </c>
       <c r="J2">
-        <v>0.2406362868021984</v>
+        <v>0.2704460545904799</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.1881691411637</v>
+        <v>22.839587</v>
       </c>
       <c r="N2">
-        <v>21.1881691411637</v>
+        <v>68.518761</v>
       </c>
       <c r="O2">
-        <v>0.1947767123522898</v>
+        <v>0.2024156068965367</v>
       </c>
       <c r="P2">
-        <v>0.1947767123522898</v>
+        <v>0.2024156068965367</v>
       </c>
       <c r="Q2">
-        <v>482.9739747133116</v>
+        <v>630.0524282562384</v>
       </c>
       <c r="R2">
-        <v>482.9739747133116</v>
+        <v>5670.471854306145</v>
       </c>
       <c r="S2">
-        <v>0.0468703448159949</v>
+        <v>0.05474250227270588</v>
       </c>
       <c r="T2">
-        <v>0.0468703448159949</v>
+        <v>0.05474250227270588</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>22.7945119512476</v>
+        <v>27.58598166666667</v>
       </c>
       <c r="H3">
-        <v>22.7945119512476</v>
+        <v>82.75794500000001</v>
       </c>
       <c r="I3">
-        <v>0.2406362868021984</v>
+        <v>0.2704460545904799</v>
       </c>
       <c r="J3">
-        <v>0.2406362868021984</v>
+        <v>0.2704460545904799</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>31.2610294023359</v>
+        <v>31.29092</v>
       </c>
       <c r="N3">
-        <v>31.2610294023359</v>
+        <v>93.87276</v>
       </c>
       <c r="O3">
-        <v>0.2873736041641226</v>
+        <v>0.2773154594323872</v>
       </c>
       <c r="P3">
-        <v>0.2873736041641226</v>
+        <v>0.2773154594323872</v>
       </c>
       <c r="Q3">
-        <v>712.5799083198483</v>
+        <v>863.1907454531334</v>
       </c>
       <c r="R3">
-        <v>712.5799083198483</v>
+        <v>7768.7167090782</v>
       </c>
       <c r="S3">
-        <v>0.06915251703101923</v>
+        <v>0.0749988718804354</v>
       </c>
       <c r="T3">
-        <v>0.06915251703101923</v>
+        <v>0.0749988718804354</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>22.7945119512476</v>
+        <v>27.58598166666667</v>
       </c>
       <c r="H4">
-        <v>22.7945119512476</v>
+        <v>82.75794500000001</v>
       </c>
       <c r="I4">
-        <v>0.2406362868021984</v>
+        <v>0.2704460545904799</v>
       </c>
       <c r="J4">
-        <v>0.2406362868021984</v>
+        <v>0.2704460545904799</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.7158161083243</v>
+        <v>35.824351</v>
       </c>
       <c r="N4">
-        <v>33.7158161083243</v>
+        <v>107.473053</v>
       </c>
       <c r="O4">
-        <v>0.3099397485503131</v>
+        <v>0.3174929454433458</v>
       </c>
       <c r="P4">
-        <v>0.3099397485503131</v>
+        <v>0.3174929454433459</v>
       </c>
       <c r="Q4">
-        <v>768.5355732272645</v>
+        <v>988.2498899062317</v>
       </c>
       <c r="R4">
-        <v>768.5355732272645</v>
+        <v>8894.249009156087</v>
       </c>
       <c r="S4">
-        <v>0.0745827502235544</v>
+        <v>0.08586471445546337</v>
       </c>
       <c r="T4">
-        <v>0.0745827502235544</v>
+        <v>0.08586471445546337</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>22.7945119512476</v>
+        <v>27.58598166666667</v>
       </c>
       <c r="H5">
-        <v>22.7945119512476</v>
+        <v>82.75794500000001</v>
       </c>
       <c r="I5">
-        <v>0.2406362868021984</v>
+        <v>0.2704460545904799</v>
       </c>
       <c r="J5">
-        <v>0.2406362868021984</v>
+        <v>0.2704460545904799</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.6168252574614</v>
+        <v>22.88025066666667</v>
       </c>
       <c r="N5">
-        <v>22.6168252574614</v>
+        <v>68.64075199999999</v>
       </c>
       <c r="O5">
-        <v>0.2079099349332746</v>
+        <v>0.2027759882277303</v>
       </c>
       <c r="P5">
-        <v>0.2079099349332746</v>
+        <v>0.2027759882277303</v>
       </c>
       <c r="Q5">
-        <v>515.5394936304824</v>
+        <v>631.1741754194045</v>
       </c>
       <c r="R5">
-        <v>515.5394936304824</v>
+        <v>5680.56757877464</v>
       </c>
       <c r="S5">
-        <v>0.05003067473162988</v>
+        <v>0.05483996598187526</v>
       </c>
       <c r="T5">
-        <v>0.05003067473162988</v>
+        <v>0.05483996598187525</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>26.0389694209687</v>
+        <v>26.23504533333333</v>
       </c>
       <c r="H6">
-        <v>26.0389694209687</v>
+        <v>78.705136</v>
       </c>
       <c r="I6">
-        <v>0.274887259135853</v>
+        <v>0.2572018131577233</v>
       </c>
       <c r="J6">
-        <v>0.274887259135853</v>
+        <v>0.2572018131577233</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.1881691411637</v>
+        <v>22.839587</v>
       </c>
       <c r="N6">
-        <v>21.1881691411637</v>
+        <v>68.518761</v>
       </c>
       <c r="O6">
-        <v>0.1947767123522898</v>
+        <v>0.2024156068965367</v>
       </c>
       <c r="P6">
-        <v>0.1947767123522898</v>
+        <v>0.2024156068965367</v>
       </c>
       <c r="Q6">
-        <v>551.7180883530743</v>
+        <v>599.1976003396106</v>
       </c>
       <c r="R6">
-        <v>551.7180883530743</v>
+        <v>5392.778403056495</v>
       </c>
       <c r="S6">
-        <v>0.05354163660201339</v>
+        <v>0.0520616611052102</v>
       </c>
       <c r="T6">
-        <v>0.05354163660201339</v>
+        <v>0.0520616611052102</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>26.0389694209687</v>
+        <v>26.23504533333333</v>
       </c>
       <c r="H7">
-        <v>26.0389694209687</v>
+        <v>78.705136</v>
       </c>
       <c r="I7">
-        <v>0.274887259135853</v>
+        <v>0.2572018131577233</v>
       </c>
       <c r="J7">
-        <v>0.274887259135853</v>
+        <v>0.2572018131577233</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>31.2610294023359</v>
+        <v>31.29092</v>
       </c>
       <c r="N7">
-        <v>31.2610294023359</v>
+        <v>93.87276</v>
       </c>
       <c r="O7">
-        <v>0.2873736041641226</v>
+        <v>0.2773154594323872</v>
       </c>
       <c r="P7">
-        <v>0.2873736041641226</v>
+        <v>0.2773154594323872</v>
       </c>
       <c r="Q7">
-        <v>814.004988675428</v>
+        <v>820.9187047217066</v>
       </c>
       <c r="R7">
-        <v>814.004988675428</v>
+        <v>7388.268342495359</v>
       </c>
       <c r="S7">
-        <v>0.07899534239666721</v>
+        <v>0.07132603898267705</v>
       </c>
       <c r="T7">
-        <v>0.07899534239666721</v>
+        <v>0.07132603898267705</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>26.0389694209687</v>
+        <v>26.23504533333333</v>
       </c>
       <c r="H8">
-        <v>26.0389694209687</v>
+        <v>78.705136</v>
       </c>
       <c r="I8">
-        <v>0.274887259135853</v>
+        <v>0.2572018131577233</v>
       </c>
       <c r="J8">
-        <v>0.274887259135853</v>
+        <v>0.2572018131577233</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.7158161083243</v>
+        <v>35.824351</v>
       </c>
       <c r="N8">
-        <v>33.7158161083243</v>
+        <v>107.473053</v>
       </c>
       <c r="O8">
-        <v>0.3099397485503131</v>
+        <v>0.3174929454433458</v>
       </c>
       <c r="P8">
-        <v>0.3099397485503131</v>
+        <v>0.3174929454433459</v>
       </c>
       <c r="Q8">
-        <v>877.9251046476603</v>
+        <v>939.8534725222453</v>
       </c>
       <c r="R8">
-        <v>877.9251046476603</v>
+        <v>8458.681252700208</v>
       </c>
       <c r="S8">
-        <v>0.08519848797625104</v>
+        <v>0.08165976123281468</v>
       </c>
       <c r="T8">
-        <v>0.08519848797625104</v>
+        <v>0.08165976123281468</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>26.0389694209687</v>
+        <v>26.23504533333333</v>
       </c>
       <c r="H9">
-        <v>26.0389694209687</v>
+        <v>78.705136</v>
       </c>
       <c r="I9">
-        <v>0.274887259135853</v>
+        <v>0.2572018131577233</v>
       </c>
       <c r="J9">
-        <v>0.274887259135853</v>
+        <v>0.2572018131577233</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>22.6168252574614</v>
+        <v>22.88025066666667</v>
       </c>
       <c r="N9">
-        <v>22.6168252574614</v>
+        <v>68.64075199999999</v>
       </c>
       <c r="O9">
-        <v>0.2079099349332746</v>
+        <v>0.2027759882277303</v>
       </c>
       <c r="P9">
-        <v>0.2079099349332746</v>
+        <v>0.2027759882277303</v>
       </c>
       <c r="Q9">
-        <v>588.91882127843</v>
+        <v>600.2644134780302</v>
       </c>
       <c r="R9">
-        <v>588.91882127843</v>
+        <v>5402.379721302271</v>
       </c>
       <c r="S9">
-        <v>0.05715179216092141</v>
+        <v>0.05215435183702138</v>
       </c>
       <c r="T9">
-        <v>0.05715179216092141</v>
+        <v>0.05215435183702138</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>27.2133891293748</v>
+        <v>29.31506333333334</v>
       </c>
       <c r="H10">
-        <v>27.2133891293748</v>
+        <v>87.94519000000001</v>
       </c>
       <c r="I10">
-        <v>0.2872853310218667</v>
+        <v>0.2873975381543141</v>
       </c>
       <c r="J10">
-        <v>0.2872853310218667</v>
+        <v>0.2873975381543141</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>21.1881691411637</v>
+        <v>22.839587</v>
       </c>
       <c r="N10">
-        <v>21.1881691411637</v>
+        <v>68.518761</v>
       </c>
       <c r="O10">
-        <v>0.1947767123522898</v>
+        <v>0.2024156068965367</v>
       </c>
       <c r="P10">
-        <v>0.1947767123522898</v>
+        <v>0.2024156068965367</v>
       </c>
       <c r="Q10">
-        <v>576.6018917774988</v>
+        <v>669.5439394121768</v>
       </c>
       <c r="R10">
-        <v>576.6018917774988</v>
+        <v>6025.895454709591</v>
       </c>
       <c r="S10">
-        <v>0.05595649228347848</v>
+        <v>0.05817374710607605</v>
       </c>
       <c r="T10">
-        <v>0.05595649228347848</v>
+        <v>0.05817374710607606</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>27.2133891293748</v>
+        <v>29.31506333333334</v>
       </c>
       <c r="H11">
-        <v>27.2133891293748</v>
+        <v>87.94519000000001</v>
       </c>
       <c r="I11">
-        <v>0.2872853310218667</v>
+        <v>0.2873975381543141</v>
       </c>
       <c r="J11">
-        <v>0.2872853310218667</v>
+        <v>0.2873975381543141</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>31.2610294023359</v>
+        <v>31.29092</v>
       </c>
       <c r="N11">
-        <v>31.2610294023359</v>
+        <v>93.87276</v>
       </c>
       <c r="O11">
-        <v>0.2873736041641226</v>
+        <v>0.2773154594323872</v>
       </c>
       <c r="P11">
-        <v>0.2873736041641226</v>
+        <v>0.2773154594323872</v>
       </c>
       <c r="Q11">
-        <v>850.7185577105938</v>
+        <v>917.2953015582668</v>
       </c>
       <c r="R11">
-        <v>850.7185577105938</v>
+        <v>8255.657714024401</v>
       </c>
       <c r="S11">
-        <v>0.08255822099923682</v>
+        <v>0.07969978033300064</v>
       </c>
       <c r="T11">
-        <v>0.08255822099923682</v>
+        <v>0.07969978033300065</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>27.2133891293748</v>
+        <v>29.31506333333334</v>
       </c>
       <c r="H12">
-        <v>27.2133891293748</v>
+        <v>87.94519000000001</v>
       </c>
       <c r="I12">
-        <v>0.2872853310218667</v>
+        <v>0.2873975381543141</v>
       </c>
       <c r="J12">
-        <v>0.2872853310218667</v>
+        <v>0.2873975381543141</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.7158161083243</v>
+        <v>35.824351</v>
       </c>
       <c r="N12">
-        <v>33.7158161083243</v>
+        <v>107.473053</v>
       </c>
       <c r="O12">
-        <v>0.3099397485503131</v>
+        <v>0.3174929454433458</v>
       </c>
       <c r="P12">
-        <v>0.3099397485503131</v>
+        <v>0.3174929454433459</v>
       </c>
       <c r="Q12">
-        <v>917.5216235702723</v>
+        <v>1050.193118440563</v>
       </c>
       <c r="R12">
-        <v>917.5216235702723</v>
+        <v>9451.738065965072</v>
       </c>
       <c r="S12">
-        <v>0.08904114325911081</v>
+        <v>0.09124669090177956</v>
       </c>
       <c r="T12">
-        <v>0.08904114325911081</v>
+        <v>0.09124669090177957</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>27.2133891293748</v>
+        <v>29.31506333333334</v>
       </c>
       <c r="H13">
-        <v>27.2133891293748</v>
+        <v>87.94519000000001</v>
       </c>
       <c r="I13">
-        <v>0.2872853310218667</v>
+        <v>0.2873975381543141</v>
       </c>
       <c r="J13">
-        <v>0.2872853310218667</v>
+        <v>0.2873975381543141</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>22.6168252574614</v>
+        <v>22.88025066666667</v>
       </c>
       <c r="N13">
-        <v>22.6168252574614</v>
+        <v>68.64075199999999</v>
       </c>
       <c r="O13">
-        <v>0.2079099349332746</v>
+        <v>0.2027759882277303</v>
       </c>
       <c r="P13">
-        <v>0.2079099349332746</v>
+        <v>0.2027759882277303</v>
       </c>
       <c r="Q13">
-        <v>615.4804666023695</v>
+        <v>670.7359973758756</v>
       </c>
       <c r="R13">
-        <v>615.4804666023695</v>
+        <v>6036.62397638288</v>
       </c>
       <c r="S13">
-        <v>0.05972947448004055</v>
+        <v>0.05827731981345786</v>
       </c>
       <c r="T13">
-        <v>0.05972947448004055</v>
+        <v>0.05827731981345786</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>18.6791255406623</v>
+        <v>18.86569966666666</v>
       </c>
       <c r="H14">
-        <v>18.6791255406623</v>
+        <v>56.59709899999999</v>
       </c>
       <c r="I14">
-        <v>0.1971911230400819</v>
+        <v>0.1849545940974826</v>
       </c>
       <c r="J14">
-        <v>0.1971911230400819</v>
+        <v>0.1849545940974826</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>21.1881691411637</v>
+        <v>22.839587</v>
       </c>
       <c r="N14">
-        <v>21.1881691411637</v>
+        <v>68.518761</v>
       </c>
       <c r="O14">
-        <v>0.1947767123522898</v>
+        <v>0.2024156068965367</v>
       </c>
       <c r="P14">
-        <v>0.1947767123522898</v>
+        <v>0.2024156068965367</v>
       </c>
       <c r="Q14">
-        <v>395.7764713645837</v>
+        <v>430.8847888527042</v>
       </c>
       <c r="R14">
-        <v>395.7764713645837</v>
+        <v>3877.963099674339</v>
       </c>
       <c r="S14">
-        <v>0.03840823865080302</v>
+        <v>0.03743769641254455</v>
       </c>
       <c r="T14">
-        <v>0.03840823865080302</v>
+        <v>0.03743769641254455</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>18.6791255406623</v>
+        <v>18.86569966666666</v>
       </c>
       <c r="H15">
-        <v>18.6791255406623</v>
+        <v>56.59709899999999</v>
       </c>
       <c r="I15">
-        <v>0.1971911230400819</v>
+        <v>0.1849545940974826</v>
       </c>
       <c r="J15">
-        <v>0.1971911230400819</v>
+        <v>0.1849545940974826</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>31.2610294023359</v>
+        <v>31.29092</v>
       </c>
       <c r="N15">
-        <v>31.2610294023359</v>
+        <v>93.87276</v>
       </c>
       <c r="O15">
-        <v>0.2873736041641226</v>
+        <v>0.2773154594323872</v>
       </c>
       <c r="P15">
-        <v>0.2873736041641226</v>
+        <v>0.2773154594323872</v>
       </c>
       <c r="Q15">
-        <v>583.9286927365677</v>
+        <v>590.3250990136933</v>
       </c>
       <c r="R15">
-        <v>583.9286927365677</v>
+        <v>5312.925891123239</v>
       </c>
       <c r="S15">
-        <v>0.05666752373719929</v>
+        <v>0.05129076823627408</v>
       </c>
       <c r="T15">
-        <v>0.05666752373719929</v>
+        <v>0.05129076823627409</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>18.6791255406623</v>
+        <v>18.86569966666666</v>
       </c>
       <c r="H16">
-        <v>18.6791255406623</v>
+        <v>56.59709899999999</v>
       </c>
       <c r="I16">
-        <v>0.1971911230400819</v>
+        <v>0.1849545940974826</v>
       </c>
       <c r="J16">
-        <v>0.1971911230400819</v>
+        <v>0.1849545940974826</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.7158161083243</v>
+        <v>35.824351</v>
       </c>
       <c r="N16">
-        <v>33.7158161083243</v>
+        <v>107.473053</v>
       </c>
       <c r="O16">
-        <v>0.3099397485503131</v>
+        <v>0.3174929454433458</v>
       </c>
       <c r="P16">
-        <v>0.3099397485503131</v>
+        <v>0.3174929454433459</v>
       </c>
       <c r="Q16">
-        <v>629.7819617932738</v>
+        <v>675.8514467192496</v>
       </c>
       <c r="R16">
-        <v>629.7819617932738</v>
+        <v>6082.663020473246</v>
       </c>
       <c r="S16">
-        <v>0.06111736709139683</v>
+        <v>0.05872177885328823</v>
       </c>
       <c r="T16">
-        <v>0.06111736709139683</v>
+        <v>0.05872177885328823</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>18.6791255406623</v>
+        <v>18.86569966666666</v>
       </c>
       <c r="H17">
-        <v>18.6791255406623</v>
+        <v>56.59709899999999</v>
       </c>
       <c r="I17">
-        <v>0.1971911230400819</v>
+        <v>0.1849545940974826</v>
       </c>
       <c r="J17">
-        <v>0.1971911230400819</v>
+        <v>0.1849545940974826</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.6168252574614</v>
+        <v>22.88025066666667</v>
       </c>
       <c r="N17">
-        <v>22.6168252574614</v>
+        <v>68.64075199999999</v>
       </c>
       <c r="O17">
-        <v>0.2079099349332746</v>
+        <v>0.2027759882277303</v>
       </c>
       <c r="P17">
-        <v>0.2079099349332746</v>
+        <v>0.2027759882277303</v>
       </c>
       <c r="Q17">
-        <v>422.4625183153435</v>
+        <v>431.6519373753831</v>
       </c>
       <c r="R17">
-        <v>422.4625183153435</v>
+        <v>3884.867436378447</v>
       </c>
       <c r="S17">
-        <v>0.04099799356068277</v>
+        <v>0.03750435059537577</v>
       </c>
       <c r="T17">
-        <v>0.04099799356068277</v>
+        <v>0.03750435059537577</v>
       </c>
     </row>
   </sheetData>
